--- a/static/files/stationnements.xlsx
+++ b/static/files/stationnements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasoudard/workspace/beta.gouv.fr/appel/static/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A571C738-06F2-C644-80FF-7FFED3E6C465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651198F3-4079-D24F-B4D8-E15C0288FDFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31060" yWindow="3060" windowWidth="27020" windowHeight="16440" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
+    <workbookView xWindow="980" yWindow="500" windowWidth="27820" windowHeight="17500" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Stationnements" sheetId="1" r:id="rId1"/>
@@ -151,7 +151,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -232,11 +232,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -255,19 +264,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,7 +670,7 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -672,44 +678,44 @@
     <col min="1" max="3" width="30.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
-      <c r="B3" s="18"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
-      <c r="B4" s="19"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="12"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
-      <c r="B5" s="18"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:11" ht="20" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
-      <c r="B6" s="19"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="12"/>
       <c r="D6" s="5"/>
       <c r="I6" s="5"/>
@@ -718,7 +724,7 @@
     </row>
     <row r="7" spans="1:11" ht="20" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
-      <c r="B7" s="18"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="11"/>
       <c r="D7" s="5"/>
       <c r="I7" s="5"/>
@@ -727,225 +733,228 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
-      <c r="B8" s="19"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
-      <c r="B9" s="18"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
-      <c r="B10" s="19"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="12"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
-      <c r="B11" s="18"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="11"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
-      <c r="B12" s="19"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="12"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
-      <c r="B13" s="18"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="11"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
-      <c r="B14" s="19"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="12"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
-      <c r="B15" s="18"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="11"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
-      <c r="B16" s="19"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="12"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
-      <c r="B17" s="18"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="11"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
-      <c r="B18" s="19"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="12"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
-      <c r="B19" s="18"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="11"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
-      <c r="B20" s="19"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="12"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
-      <c r="B21" s="18"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
-      <c r="B22" s="19"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="12"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
-      <c r="B23" s="18"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="11"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
-      <c r="B24" s="19"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="12"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
-      <c r="B25" s="18"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="11"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
-      <c r="B26" s="19"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="12"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
-      <c r="B27" s="18"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="11"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
-      <c r="B28" s="19"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="12"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
-      <c r="B29" s="18"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="11"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
-      <c r="B30" s="19"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="12"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
-      <c r="B31" s="18"/>
+      <c r="B31" s="15"/>
       <c r="C31" s="11"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
-      <c r="B32" s="19"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="12"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
-      <c r="B33" s="18"/>
+      <c r="B33" s="15"/>
       <c r="C33" s="11"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
-      <c r="B34" s="19"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="12"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
-      <c r="B35" s="18"/>
+      <c r="B35" s="15"/>
       <c r="C35" s="11"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
-      <c r="B36" s="19"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="12"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
-      <c r="B37" s="18"/>
+      <c r="B37" s="15"/>
       <c r="C37" s="11"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
-      <c r="B38" s="19"/>
+      <c r="B38" s="16"/>
       <c r="C38" s="12"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
-      <c r="B39" s="18"/>
+      <c r="B39" s="15"/>
       <c r="C39" s="11"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="7"/>
-      <c r="B40" s="19"/>
+      <c r="B40" s="16"/>
       <c r="C40" s="12"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
-      <c r="B41" s="18"/>
+      <c r="B41" s="15"/>
       <c r="C41" s="11"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="7"/>
-      <c r="B42" s="19"/>
+      <c r="B42" s="16"/>
       <c r="C42" s="12"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="8"/>
-      <c r="B43" s="18"/>
+      <c r="B43" s="15"/>
       <c r="C43" s="11"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="7"/>
-      <c r="B44" s="19"/>
+      <c r="B44" s="16"/>
       <c r="C44" s="12"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
-      <c r="B45" s="18"/>
+      <c r="B45" s="15"/>
       <c r="C45" s="11"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="7"/>
-      <c r="B46" s="19"/>
+      <c r="B46" s="16"/>
       <c r="C46" s="12"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
-      <c r="B47" s="18"/>
+      <c r="B47" s="15"/>
       <c r="C47" s="11"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="7"/>
-      <c r="B48" s="19"/>
+      <c r="B48" s="16"/>
       <c r="C48" s="12"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
-      <c r="B49" s="18"/>
+      <c r="B49" s="15"/>
       <c r="C49" s="11"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="7"/>
-      <c r="B50" s="19"/>
+      <c r="B50" s="16"/>
       <c r="C50" s="12"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
-      <c r="B51" s="20"/>
+      <c r="B51" s="17"/>
       <c r="C51" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:B2"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1057,13 +1066,13 @@
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
+      <c r="A5" s="14"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
+      <c r="A6" s="14"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
+      <c r="A7" s="14"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="0g4/dz0GA0X4EP39LJ2GjXXSslR+++820bKTgrON/8Aazxgl3yl3rQTWVMwP3CHr+tmjK8jj43/jI07o9BmFoA==" saltValue="DgPvZbS3Dt5DDfIV0guKVg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>

--- a/static/files/stationnements.xlsx
+++ b/static/files/stationnements.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasoudard/workspace/beta.gouv.fr/appel/static/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasoudard/workspace/beta.gouv.fr/apilos/static/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651198F3-4079-D24F-B4D8-E15C0288FDFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E09827-43E9-CF46-9DA1-12CB1B3DC9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="980" yWindow="500" windowWidth="27820" windowHeight="17500" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Ici quelques explications</t>
   </si>
@@ -44,9 +44,6 @@
     <t>1. Telechager le modèle (ce fichier)</t>
   </si>
   <si>
-    <t>2. Modifier à votre guise le fichier pour modifier la liste des prêts</t>
-  </si>
-  <si>
     <t>3. Enregistrer vos modifications</t>
   </si>
   <si>
@@ -56,12 +53,6 @@
     <t>Attention, en aucun cas vous ne devez modifier l'entête du tableau des prêts, cela casserait l'import des données</t>
   </si>
   <si>
-    <t>si des logements sont déjà assignés à la convention, alors ils seront exportés dans le fichier modèle</t>
-  </si>
-  <si>
-    <t>5. Vérifier le contenu téléversé dans l'application et enrigistrer en cliquant sur le bouton 'Enregistrer et Suivant'</t>
-  </si>
-  <si>
     <t>Type de stationnement</t>
   </si>
   <si>
@@ -84,6 +75,12 @@
   </si>
   <si>
     <t>Nombre de stationnements</t>
+  </si>
+  <si>
+    <t>2. Modifier à votre guise le fichier</t>
+  </si>
+  <si>
+    <t>5. Vérifier le contenu téléversé dans l'application et enregistrer en cliquant sur le bouton 'Enregistrer et Suivant'</t>
   </si>
 </sst>
 </file>
@@ -670,7 +667,7 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -680,22 +677,22 @@
   <sheetData>
     <row r="1" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -974,11 +971,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467F41B6-50A5-F34D-9811-537B9541F979}">
-  <dimension ref="B2:B10"/>
+  <dimension ref="B2:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -998,7 +993,7 @@
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.2">
@@ -1013,21 +1008,16 @@
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0IlGhDNZkMw1CpkJ22VrGnFOy5A1ba4VPUPDVGooSHmeI18rAH1D1+kQRd1kfaflIdffD1eeJO4DjXF1/JC4uA==" saltValue="z53X+BT+GWeylWBMFBybHQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="eFkecNGDBZ11eNAdcfR+zK4i2OoGtGiXL+STBqfaj83unIKZTjoMU1JxyksSYzICeI4v3xXXi+1CUxLwJ/6InA==" saltValue="gn0r5aZejum9AKLLXUz2Ag==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1047,22 +1037,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">

--- a/static/files/stationnements.xlsx
+++ b/static/files/stationnements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasoudard/workspace/beta.gouv.fr/apilos/static/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E09827-43E9-CF46-9DA1-12CB1B3DC9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C685F8-10A6-BB44-B75B-BD41CFC27D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="500" windowWidth="27820" windowHeight="17500" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
+    <workbookView xWindow="1000" yWindow="500" windowWidth="27800" windowHeight="17500" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Stationnements" sheetId="1" r:id="rId1"/>
@@ -65,9 +65,6 @@
     <t>LOYER MAXIMUM conventionné de l’annexe en euros par mois</t>
   </si>
   <si>
-    <t>Garage Aérien</t>
-  </si>
-  <si>
     <t>Garage enterré</t>
   </si>
   <si>
@@ -81,6 +78,9 @@
   </si>
   <si>
     <t>5. Vérifier le contenu téléversé dans l'application et enregistrer en cliquant sur le bouton 'Enregistrer et Suivant'</t>
+  </si>
+  <si>
+    <t>Garage aérien</t>
   </si>
 </sst>
 </file>
@@ -680,7 +680,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>6</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.2">
@@ -1008,7 +1008,7 @@
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.2">
@@ -1026,9 +1026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4880C39C-0BD9-B447-909B-7F37D33CA805}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1042,17 +1040,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -1065,7 +1063,7 @@
       <c r="A7" s="14"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0g4/dz0GA0X4EP39LJ2GjXXSslR+++820bKTgrON/8Aazxgl3yl3rQTWVMwP3CHr+tmjK8jj43/jI07o9BmFoA==" saltValue="DgPvZbS3Dt5DDfIV0guKVg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="NrdJVeeSQ4O0b3ijl93KuzKRABapYkCeOxFACVX/ZOWKUrXgZZmkNS6p+mdk2b3RRN4HvZ7FRuc50UGU/L+YGg==" saltValue="aYsNbNwirVdfbZpnR9zITQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/static/files/stationnements.xlsx
+++ b/static/files/stationnements.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasoudard/workspace/beta.gouv.fr/apilos/static/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C685F8-10A6-BB44-B75B-BD41CFC27D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622A43ED-CA42-3345-8AA9-7456EEBDD5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="500" windowWidth="27800" windowHeight="17500" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
+    <workbookView xWindow="34700" yWindow="2060" windowWidth="27740" windowHeight="17500" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Stationnements" sheetId="1" r:id="rId1"/>
     <sheet name="Notice" sheetId="2" r:id="rId2"/>
     <sheet name="Data" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Ici quelques explications</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Garage enterré</t>
   </si>
   <si>
-    <t>Place stationnement</t>
-  </si>
-  <si>
     <t>Nombre de stationnements</t>
   </si>
   <si>
@@ -81,6 +78,21 @@
   </si>
   <si>
     <t>Garage aérien</t>
+  </si>
+  <si>
+    <t>Garage boxé simple</t>
+  </si>
+  <si>
+    <t>Garage boxé double</t>
+  </si>
+  <si>
+    <t>Place de stationnement</t>
+  </si>
+  <si>
+    <t>Parking extérieur privatif</t>
+  </si>
+  <si>
+    <t>Parking en sous-sol ou en superstructure</t>
   </si>
 </sst>
 </file>
@@ -242,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -261,7 +273,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -358,8 +369,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{60458129-C213-8741-80B4-B15A740996D3}" name="type" displayName="type" ref="A1:A4" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" totalsRowBorderDxfId="1">
-  <autoFilter ref="A1:A4" xr:uid="{60458129-C213-8741-80B4-B15A740996D3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{60458129-C213-8741-80B4-B15A740996D3}" name="type" displayName="type" ref="A1:A8" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" totalsRowBorderDxfId="1">
+  <autoFilter ref="A1:A8" xr:uid="{60458129-C213-8741-80B4-B15A740996D3}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{68B921AF-0801-1140-A800-5EFE7005DB88}" name="Type de stationnement" dataDxfId="0"/>
   </tableColumns>
@@ -666,9 +677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08021C90-1ACF-2A4C-A1B0-58A48A8F7007}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -679,8 +688,8 @@
       <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>11</v>
+      <c r="B1" s="17" t="s">
+        <v>10</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>6</v>
@@ -690,29 +699,29 @@
       <c r="A2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
-      <c r="B3" s="15"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
-      <c r="B4" s="16"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="12"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
-      <c r="B5" s="15"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:11" ht="20" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
-      <c r="B6" s="16"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="12"/>
       <c r="D6" s="5"/>
       <c r="I6" s="5"/>
@@ -721,7 +730,7 @@
     </row>
     <row r="7" spans="1:11" ht="20" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
-      <c r="B7" s="15"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="11"/>
       <c r="D7" s="5"/>
       <c r="I7" s="5"/>
@@ -730,222 +739,222 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
-      <c r="B8" s="16"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
-      <c r="B9" s="15"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
-      <c r="B10" s="16"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="12"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
-      <c r="B11" s="15"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="11"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
-      <c r="B12" s="16"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="12"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
-      <c r="B13" s="15"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="11"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
-      <c r="B14" s="16"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="12"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
-      <c r="B15" s="15"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="11"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
-      <c r="B16" s="16"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="12"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
-      <c r="B17" s="15"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="11"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
-      <c r="B18" s="16"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="12"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
-      <c r="B19" s="15"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="11"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
-      <c r="B20" s="16"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="12"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
-      <c r="B21" s="15"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
-      <c r="B22" s="16"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="12"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
-      <c r="B23" s="15"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="11"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
-      <c r="B24" s="16"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="12"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
-      <c r="B25" s="15"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="11"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
-      <c r="B26" s="16"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="12"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
-      <c r="B27" s="15"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="11"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
-      <c r="B28" s="16"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="12"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
-      <c r="B29" s="15"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="11"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
-      <c r="B30" s="16"/>
+      <c r="B30" s="15"/>
       <c r="C30" s="12"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
-      <c r="B31" s="15"/>
+      <c r="B31" s="14"/>
       <c r="C31" s="11"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
-      <c r="B32" s="16"/>
+      <c r="B32" s="15"/>
       <c r="C32" s="12"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
-      <c r="B33" s="15"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="11"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
-      <c r="B34" s="16"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="12"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
-      <c r="B35" s="15"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="11"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
-      <c r="B36" s="16"/>
+      <c r="B36" s="15"/>
       <c r="C36" s="12"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
-      <c r="B37" s="15"/>
+      <c r="B37" s="14"/>
       <c r="C37" s="11"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
-      <c r="B38" s="16"/>
+      <c r="B38" s="15"/>
       <c r="C38" s="12"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
-      <c r="B39" s="15"/>
+      <c r="B39" s="14"/>
       <c r="C39" s="11"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="7"/>
-      <c r="B40" s="16"/>
+      <c r="B40" s="15"/>
       <c r="C40" s="12"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
-      <c r="B41" s="15"/>
+      <c r="B41" s="14"/>
       <c r="C41" s="11"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="7"/>
-      <c r="B42" s="16"/>
+      <c r="B42" s="15"/>
       <c r="C42" s="12"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="8"/>
-      <c r="B43" s="15"/>
+      <c r="B43" s="14"/>
       <c r="C43" s="11"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="7"/>
-      <c r="B44" s="16"/>
+      <c r="B44" s="15"/>
       <c r="C44" s="12"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
-      <c r="B45" s="15"/>
+      <c r="B45" s="14"/>
       <c r="C45" s="11"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="7"/>
-      <c r="B46" s="16"/>
+      <c r="B46" s="15"/>
       <c r="C46" s="12"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
-      <c r="B47" s="15"/>
+      <c r="B47" s="14"/>
       <c r="C47" s="11"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="7"/>
-      <c r="B48" s="16"/>
+      <c r="B48" s="15"/>
       <c r="C48" s="12"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
-      <c r="B49" s="15"/>
+      <c r="B49" s="14"/>
       <c r="C49" s="11"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="7"/>
-      <c r="B50" s="16"/>
+      <c r="B50" s="15"/>
       <c r="C50" s="12"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
-      <c r="B51" s="17"/>
+      <c r="B51" s="16"/>
       <c r="C51" s="13"/>
     </row>
   </sheetData>
@@ -959,7 +968,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0632B4FB-3670-0342-8506-5DC3D8077703}">
           <x14:formula1>
-            <xm:f>Data!$A$2:$A$4</xm:f>
+            <xm:f>Data!$A$2:$A$8</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A51</xm:sqref>
         </x14:dataValidation>
@@ -993,7 +1002,7 @@
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.2">
@@ -1008,7 +1017,7 @@
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.2">
@@ -1024,7 +1033,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4880C39C-0BD9-B447-909B-7F37D33CA805}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1040,7 +1049,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -1050,20 +1059,31 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
+      <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="NrdJVeeSQ4O0b3ijl93KuzKRABapYkCeOxFACVX/ZOWKUrXgZZmkNS6p+mdk2b3RRN4HvZ7FRuc50UGU/L+YGg==" saltValue="aYsNbNwirVdfbZpnR9zITQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FpFaiAt/hj0mRaeMQbB7SwPHtnqdpuLITDAqPUXBp8SuV4Wlwra5XV/V/t2i0Sbqawe5xjZ5939KAYfLbYVJpg==" saltValue="UA3tAN5V2NAz5u+7HUg5VA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/static/files/stationnements.xlsx
+++ b/static/files/stationnements.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasoudard/workspace/beta.gouv.fr/apilos/static/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622A43ED-CA42-3345-8AA9-7456EEBDD5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF305C6-ECD1-3248-B176-95FF60C36674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34700" yWindow="2060" windowWidth="27740" windowHeight="17500" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
+    <workbookView xWindow="1000" yWindow="500" windowWidth="27800" windowHeight="17500" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Stationnements" sheetId="1" r:id="rId1"/>
     <sheet name="Notice" sheetId="2" r:id="rId2"/>
     <sheet name="Data" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -56,9 +56,6 @@
     <t>Type de stationnement</t>
   </si>
   <si>
-    <t>Loyer maxinum en €</t>
-  </si>
-  <si>
     <t>TYPE D’ANNEXE DÉFINIE à l’article D. 353-16, dernier alinéa du 2°</t>
   </si>
   <si>
@@ -93,6 +90,9 @@
   </si>
   <si>
     <t>Parking en sous-sol ou en superstructure</t>
+  </si>
+  <si>
+    <t>Loyer maximum en €</t>
   </si>
 </sst>
 </file>
@@ -677,7 +677,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08021C90-1ACF-2A4C-A1B0-58A48A8F7007}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -689,19 +691,19 @@
         <v>5</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -1002,7 +1004,7 @@
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.2">
@@ -1017,7 +1019,7 @@
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.2">
@@ -1049,37 +1051,37 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/static/files/stationnements.xlsx
+++ b/static/files/stationnements.xlsx
@@ -140,6 +140,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="16"/>
       <color rgb="FF383838"/>
@@ -154,12 +161,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -281,7 +282,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -298,6 +299,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -318,7 +323,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -338,15 +343,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -444,13 +449,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="30.83"/>
   </cols>
@@ -466,278 +471,285 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="6"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="6"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="9"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="7"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="6"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="9"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="7"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="6"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="9"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="7"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="6"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="9"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="8"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="7"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="6"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="9"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="8"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="7"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="6"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="9"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="10"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="8"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="7"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="6"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="9"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="10"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="8"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="7"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="6"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="9"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="10"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="8"/>
+      <c r="A48" s="5"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="7"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="6"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="9"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="10"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="8"/>
+      <c r="A50" s="5"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="7"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="11"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="13"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="9"/>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="12"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:B2"/>
+  <mergeCells count="3">
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A51" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A52" type="list">
       <formula1>Data!$A$2:$A$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A3 A5 A7:A50" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A4 A6 A8:A51" type="list">
       <formula1>Data!$A$2:$A$13</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -763,14 +775,14 @@
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.59375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="120.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="120.13"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>5</v>
       </c>
     </row>
@@ -805,14 +817,14 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="16" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="true" password="d927" objects="true" scenarios="true"/>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" display=" contact@apilos.beta.gouv.fr"/>
+    <hyperlink ref="B10" r:id="rId1" display="Si vous ne trouvez pas votre type de stationnement dans la liste déroulante, n’hésitez pas à nous renvoyer un mail à contact@apilos.beta.gouv.fr"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -835,73 +847,73 @@
       <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.59375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="19" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>24</v>
       </c>
     </row>

--- a/static/files/stationnements.xlsx
+++ b/static/files/stationnements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasoudard/workspace/beta.gouv.fr/apilos/static/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marjo\Desktop\HD\Beta-Gouv\apilos\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF305C6-ECD1-3248-B176-95FF60C36674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AE805E-6EAD-49C3-8DDB-D96EF11D8479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="500" windowWidth="27800" windowHeight="17500" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Stationnements" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Ici quelques explications</t>
   </si>
@@ -93,6 +93,27 @@
   </si>
   <si>
     <t>Loyer maximum en €</t>
+  </si>
+  <si>
+    <t>Si vous ne trouvez pas votre type de stationnement dans la liste déroulante, n’hésitez pas à nous renvoyer un mail à contact@apilos.beta.gouv.fr</t>
+  </si>
+  <si>
+    <t>extérieur boxé</t>
+  </si>
+  <si>
+    <t>Carport</t>
+  </si>
+  <si>
+    <t>2 roues en sous-sol</t>
+  </si>
+  <si>
+    <t>lignes data</t>
+  </si>
+  <si>
+    <t>en sous-sol boxé</t>
+  </si>
+  <si>
+    <t>2 roues en extérieur</t>
   </si>
 </sst>
 </file>
@@ -102,7 +123,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ [$€-40C]"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -139,8 +160,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,6 +193,18 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5B9BD5"/>
+        <bgColor rgb="FF8FAADC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAE3F3"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -195,19 +243,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -250,36 +285,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -369,8 +422,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{60458129-C213-8741-80B4-B15A740996D3}" name="type" displayName="type" ref="A1:A8" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" totalsRowBorderDxfId="1">
-  <autoFilter ref="A1:A8" xr:uid="{60458129-C213-8741-80B4-B15A740996D3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{60458129-C213-8741-80B4-B15A740996D3}" name="type" displayName="type" ref="A1:A13" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" totalsRowBorderDxfId="1">
+  <autoFilter ref="A1:A13" xr:uid="{60458129-C213-8741-80B4-B15A740996D3}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{68B921AF-0801-1140-A800-5EFE7005DB88}" name="Type de stationnement" dataDxfId="0"/>
   </tableColumns>
@@ -379,7 +432,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -678,286 +731,286 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="30.83203125" customWidth="1"/>
+    <col min="1" max="3" width="30.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="11"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="12"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="11"/>
-    </row>
-    <row r="6" spans="1:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="12"/>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="9"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="11"/>
+    <row r="7" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="12"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="11"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="12"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="11"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="12"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="11"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="12"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="12"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="11"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="12"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="11"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="12"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="11"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="12"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="11"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="12"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="11"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="12"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="11"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="12"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="11"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="7"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="12"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="11"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="7"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="12"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="11"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="12"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="11"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="7"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="12"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="11"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="7"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="12"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="11"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="7"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="12"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="8"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="11"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="7"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="12"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="8"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="11"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="7"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="12"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="8"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="11"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="7"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="12"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="8"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="11"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="7"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="12"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="8"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="11"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="7"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="12"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="10"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="10"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="10"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="10"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="10"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="10"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="10"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="10"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="9"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="10"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="9"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="10"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="9"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="10"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="9"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="10"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="9"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="10"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="9"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="10"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="9"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="10"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="9"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="10"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="9"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="10"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="6"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="9"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="10"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="9"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="10"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="13"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -965,12 +1018,13 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0632B4FB-3670-0342-8506-5DC3D8077703}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D3CE0EFE-E6CE-4378-AA4C-1579236482F7}">
           <x14:formula1>
-            <xm:f>Data!$A$2:$A$8</xm:f>
+            <xm:f>Data!$A$2:$A$13</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A51</xm:sqref>
         </x14:dataValidation>
@@ -982,110 +1036,150 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467F41B6-50A5-F34D-9811-537B9541F979}">
-  <dimension ref="B2:B9"/>
+  <dimension ref="B2:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="2" max="2" width="67" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="eFkecNGDBZ11eNAdcfR+zK4i2OoGtGiXL+STBqfaj83unIKZTjoMU1JxyksSYzICeI4v3xXXi+1CUxLwJ/6InA==" saltValue="gn0r5aZejum9AKLLXUz2Ag==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2OjQXDCKcn07DvkqYdDPX4iCuYhlQVEcJwbiNhIUwEHmFPq/v3Vp1oUQM+4IllHoGx8DCHmZPo43XzM+rzsuvg==" saltValue="BmHaRJuiSBBKxFRYp3BT6g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4880C39C-0BD9-B447-909B-7F37D33CA805}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="E1" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="E2" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>14</v>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FpFaiAt/hj0mRaeMQbB7SwPHtnqdpuLITDAqPUXBp8SuV4Wlwra5XV/V/t2i0Sbqawe5xjZ5939KAYfLbYVJpg==" saltValue="UA3tAN5V2NAz5u+7HUg5VA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9cMnaLp5676zm7DSAd618txPB3vEOiBvmm7Gfw8IlWuPS+af/jmvKhvbjtcQ6k5nxAKXooyiVipG4iDLmV+AtQ==" saltValue="6bEwwm21P3CB6ppYmDA+sA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/static/files/stationnements.xlsx
+++ b/static/files/stationnements.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marjo\Desktop\HD\Beta-Gouv\apilos\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AE805E-6EAD-49C3-8DDB-D96EF11D8479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E714209-62DD-4AE2-9C7D-DB41D490FA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Ici quelques explications</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>2 roues en extérieur</t>
+  </si>
+  <si>
+    <t>Parking double en sous-sol</t>
+  </si>
+  <si>
+    <t>Parking double en superstructure</t>
   </si>
 </sst>
 </file>
@@ -422,8 +428,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{60458129-C213-8741-80B4-B15A740996D3}" name="type" displayName="type" ref="A1:A13" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" totalsRowBorderDxfId="1">
-  <autoFilter ref="A1:A13" xr:uid="{60458129-C213-8741-80B4-B15A740996D3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{60458129-C213-8741-80B4-B15A740996D3}" name="type" displayName="type" ref="A1:A15" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" totalsRowBorderDxfId="1">
+  <autoFilter ref="A1:A15" xr:uid="{60458129-C213-8741-80B4-B15A740996D3}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{68B921AF-0801-1140-A800-5EFE7005DB88}" name="Type de stationnement" dataDxfId="0"/>
   </tableColumns>
@@ -731,7 +737,7 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1024,7 +1030,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D3CE0EFE-E6CE-4378-AA4C-1579236482F7}">
           <x14:formula1>
-            <xm:f>Data!$A$2:$A$13</xm:f>
+            <xm:f>Data!$A$2:$A$15</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A51</xm:sqref>
         </x14:dataValidation>
@@ -1096,10 +1102,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4880C39C-0BD9-B447-909B-7F37D33CA805}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1178,11 +1184,23 @@
         <v>22</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9cMnaLp5676zm7DSAd618txPB3vEOiBvmm7Gfw8IlWuPS+af/jmvKhvbjtcQ6k5nxAKXooyiVipG4iDLmV+AtQ==" saltValue="6bEwwm21P3CB6ppYmDA+sA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kN9zbrO8UkQG3qPhMbkPJu9FQwSnuOFbEFk4QgplDXlafUbM9XFl+FsbZHLl9faEsm0wyXZeTmQyQXStsAn/qA==" saltValue="9txwQXzZxjSJ1yvQ8cqUZw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/static/files/stationnements.xlsx
+++ b/static/files/stationnements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marjo\Desktop\HD\Beta-Gouv\apilos\static\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasoudard/workspace/beta.gouv.fr/apilos/static/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E714209-62DD-4AE2-9C7D-DB41D490FA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAB720B-316C-2D4A-93DC-675B4AD122FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
+    <workbookView xWindow="1200" yWindow="500" windowWidth="27600" windowHeight="16440" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Stationnements" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Ici quelques explications</t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>Parking double en superstructure</t>
+  </si>
+  <si>
+    <t>Garages individuels jumelés par blocs de 2</t>
+  </si>
+  <si>
+    <t>Place de parking accolée à chaque garage</t>
   </si>
 </sst>
 </file>
@@ -214,7 +220,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -249,17 +255,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -310,35 +305,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -428,8 +421,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{60458129-C213-8741-80B4-B15A740996D3}" name="type" displayName="type" ref="A1:A15" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" totalsRowBorderDxfId="1">
-  <autoFilter ref="A1:A15" xr:uid="{60458129-C213-8741-80B4-B15A740996D3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{60458129-C213-8741-80B4-B15A740996D3}" name="type" displayName="type" ref="A1:A17" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" totalsRowBorderDxfId="1">
+  <autoFilter ref="A1:A17" xr:uid="{60458129-C213-8741-80B4-B15A740996D3}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{68B921AF-0801-1140-A800-5EFE7005DB88}" name="Type de stationnement" dataDxfId="0"/>
   </tableColumns>
@@ -438,9 +431,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -478,7 +471,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -584,7 +577,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -726,7 +719,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -736,287 +729,285 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08021C90-1ACF-2A4C-A1B0-58A48A8F7007}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="30.875" customWidth="1"/>
+    <col min="1" max="3" width="30.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
-      <c r="B3" s="12"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="9"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="10"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="12"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="9"/>
     </row>
-    <row r="6" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
+    <row r="6" spans="1:11" ht="20" x14ac:dyDescent="0.2">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="10"/>
       <c r="D6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="20" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="12"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="9"/>
       <c r="D7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="10"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
-      <c r="B9" s="12"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="10"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
-      <c r="B11" s="12"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="9"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="10"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
-      <c r="B13" s="12"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="9"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="10"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
-      <c r="B15" s="12"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="9"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="10"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
-      <c r="B17" s="12"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="9"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="10"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
-      <c r="B19" s="12"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="9"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="10"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
-      <c r="B21" s="12"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="9"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="10"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
-      <c r="B23" s="12"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="9"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="10"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-      <c r="B25" s="12"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="9"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="10"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
-      <c r="B27" s="12"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="9"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="10"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
-      <c r="B29" s="12"/>
+      <c r="B29" s="11"/>
       <c r="C29" s="9"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="10"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
-      <c r="B31" s="12"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="9"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="10"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
-      <c r="B33" s="12"/>
+      <c r="B33" s="11"/>
       <c r="C33" s="9"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
       <c r="C34" s="10"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
-      <c r="B35" s="12"/>
+      <c r="B35" s="11"/>
       <c r="C35" s="9"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
       <c r="C36" s="10"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
-      <c r="B37" s="12"/>
+      <c r="B37" s="11"/>
       <c r="C37" s="9"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
       <c r="C38" s="10"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
-      <c r="B39" s="12"/>
+      <c r="B39" s="11"/>
       <c r="C39" s="9"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
       <c r="C40" s="10"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
-      <c r="B41" s="12"/>
+      <c r="B41" s="11"/>
       <c r="C41" s="9"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
       <c r="C42" s="10"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
-      <c r="B43" s="12"/>
+      <c r="B43" s="11"/>
       <c r="C43" s="9"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
       <c r="C44" s="10"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
-      <c r="B45" s="12"/>
+      <c r="B45" s="11"/>
       <c r="C45" s="9"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
       <c r="C46" s="10"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
-      <c r="B47" s="12"/>
+      <c r="B47" s="11"/>
       <c r="C47" s="9"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
       <c r="C48" s="10"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
-      <c r="B49" s="12"/>
+      <c r="B49" s="11"/>
       <c r="C49" s="9"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
       <c r="C50" s="10"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1028,9 +1019,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D3CE0EFE-E6CE-4378-AA4C-1579236482F7}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{31351FEE-EEB5-0D41-8B16-4110E99BCFD9}">
           <x14:formula1>
-            <xm:f>Data!$A$2:$A$15</xm:f>
+            <xm:f>Data!$A$2:$A$17</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A51</xm:sqref>
         </x14:dataValidation>
@@ -1048,48 +1039,48 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="2" max="2" width="67" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>19</v>
       </c>
@@ -1102,100 +1093,108 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4880C39C-0BD9-B447-909B-7F37D33CA805}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="15">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
     </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kN9zbrO8UkQG3qPhMbkPJu9FQwSnuOFbEFk4QgplDXlafUbM9XFl+FsbZHLl9faEsm0wyXZeTmQyQXStsAn/qA==" saltValue="9txwQXzZxjSJ1yvQ8cqUZw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="PYQOo5uLTdwjuCpUSMMm7nnCUot2baLVwKk3ZBn9gohweLzGsu9N9jsEFzS1hVfwXK9LEbXh2Z96Kh1G6sIBTA==" saltValue="sBdKlTpg++QCHTyUie+JlQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/static/files/stationnements.xlsx
+++ b/static/files/stationnements.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasoudard/workspace/beta.gouv.fr/apilos/static/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAB720B-316C-2D4A-93DC-675B4AD122FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF76D782-5C94-6F42-A236-FC4A7FEF5086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="500" windowWidth="27600" windowHeight="16440" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
+    <workbookView xWindow="34880" yWindow="800" windowWidth="27600" windowHeight="16440" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Stationnements" sheetId="1" r:id="rId1"/>
     <sheet name="Notice" sheetId="2" r:id="rId2"/>
     <sheet name="Data" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -729,7 +729,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08021C90-1ACF-2A4C-A1B0-58A48A8F7007}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -756,22 +758,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="11"/>
       <c r="C3" s="9"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="10"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="11"/>
       <c r="C5" s="9"/>
     </row>
-    <row r="6" spans="1:11" ht="20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="10"/>
@@ -780,7 +782,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" ht="20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="11"/>
       <c r="C7" s="9"/>
@@ -789,217 +791,217 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="10"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="11"/>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="10"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="11"/>
       <c r="C11" s="9"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="10"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="11"/>
       <c r="C13" s="9"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="10"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="11"/>
       <c r="C15" s="9"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="10"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="11"/>
       <c r="C17" s="9"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="10"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="11"/>
       <c r="C19" s="9"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="10"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="11"/>
       <c r="C21" s="9"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="10"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
       <c r="C23" s="9"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="10"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="11"/>
       <c r="C25" s="9"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="10"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="11"/>
       <c r="C27" s="9"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="10"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="11"/>
       <c r="C29" s="9"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="10"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="11"/>
       <c r="C31" s="9"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="10"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="11"/>
       <c r="C33" s="9"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="10"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="11"/>
       <c r="C35" s="9"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="10"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="11"/>
       <c r="C37" s="9"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="10"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="11"/>
       <c r="C39" s="9"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="10"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" s="11"/>
       <c r="C41" s="9"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="10"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="11"/>
       <c r="C43" s="9"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="10"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="11"/>
       <c r="C45" s="9"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="10"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
       <c r="B47" s="11"/>
       <c r="C47" s="9"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="10"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="11"/>
       <c r="C49" s="9"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="10"/>
@@ -1035,9 +1037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467F41B6-50A5-F34D-9811-537B9541F979}">
   <dimension ref="B2:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/static/files/stationnements.xlsx
+++ b/static/files/stationnements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasoudard/workspace/beta.gouv.fr/apilos/static/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayoub.bouchachia\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF76D782-5C94-6F42-A236-FC4A7FEF5086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2F23E6-3DB0-488F-AFDC-58EEB8D71163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34880" yWindow="800" windowWidth="27600" windowHeight="16440" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
+    <workbookView xWindow="-45" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Stationnements" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Ici quelques explications</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>Place de parking accolée à chaque garage</t>
+  </si>
+  <si>
+    <t>Financement</t>
   </si>
 </sst>
 </file>
@@ -431,7 +434,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -730,289 +733,342 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="30.83203125" customWidth="1"/>
+    <col min="1" max="2" width="30.875" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="17"/>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="11"/>
-      <c r="C3" s="9"/>
-    </row>
-    <row r="4" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="11"/>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
-      <c r="C4" s="10"/>
-    </row>
-    <row r="5" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="12"/>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="9"/>
-    </row>
-    <row r="6" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="11"/>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="5"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="5"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="9"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
-      <c r="C8" s="10"/>
-    </row>
-    <row r="9" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="11"/>
-      <c r="C9" s="9"/>
-    </row>
-    <row r="10" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="11"/>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
-      <c r="C10" s="10"/>
-    </row>
-    <row r="11" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="12"/>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="11"/>
-      <c r="C11" s="9"/>
-    </row>
-    <row r="12" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="11"/>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
-      <c r="C12" s="10"/>
-    </row>
-    <row r="13" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="12"/>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="11"/>
-      <c r="C13" s="9"/>
-    </row>
-    <row r="14" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="11"/>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
-      <c r="C14" s="10"/>
-    </row>
-    <row r="15" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="11"/>
-      <c r="C15" s="9"/>
-    </row>
-    <row r="16" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="11"/>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
-      <c r="C16" s="10"/>
-    </row>
-    <row r="17" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="11"/>
-      <c r="C17" s="9"/>
-    </row>
-    <row r="18" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="11"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
-      <c r="C18" s="10"/>
-    </row>
-    <row r="19" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="12"/>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="11"/>
-      <c r="C19" s="9"/>
-    </row>
-    <row r="20" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="11"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
-      <c r="C20" s="10"/>
-    </row>
-    <row r="21" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="12"/>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="11"/>
-      <c r="C21" s="9"/>
-    </row>
-    <row r="22" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="11"/>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
-      <c r="C22" s="10"/>
-    </row>
-    <row r="23" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="9"/>
-    </row>
-    <row r="24" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="11"/>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
-      <c r="C24" s="10"/>
-    </row>
-    <row r="25" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="9"/>
-    </row>
-    <row r="26" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="11"/>
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
-      <c r="C26" s="10"/>
-    </row>
-    <row r="27" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="12"/>
+      <c r="D26" s="10"/>
+    </row>
+    <row r="27" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="11"/>
-      <c r="C27" s="9"/>
-    </row>
-    <row r="28" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="11"/>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
-      <c r="C28" s="10"/>
-    </row>
-    <row r="29" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="12"/>
+      <c r="D28" s="10"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="11"/>
-      <c r="C29" s="9"/>
-    </row>
-    <row r="30" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="11"/>
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
-      <c r="C30" s="10"/>
-    </row>
-    <row r="31" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="12"/>
+      <c r="D30" s="10"/>
+    </row>
+    <row r="31" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="11"/>
-      <c r="C31" s="9"/>
-    </row>
-    <row r="32" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="11"/>
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
-      <c r="C32" s="10"/>
-    </row>
-    <row r="33" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="12"/>
+      <c r="D32" s="10"/>
+    </row>
+    <row r="33" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="11"/>
-      <c r="C33" s="9"/>
-    </row>
-    <row r="34" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="11"/>
+      <c r="D33" s="9"/>
+    </row>
+    <row r="34" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
-      <c r="C34" s="10"/>
-    </row>
-    <row r="35" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="12"/>
+      <c r="D34" s="10"/>
+    </row>
+    <row r="35" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="11"/>
-      <c r="C35" s="9"/>
-    </row>
-    <row r="36" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="11"/>
+      <c r="D35" s="9"/>
+    </row>
+    <row r="36" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
-      <c r="C36" s="10"/>
-    </row>
-    <row r="37" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="12"/>
+      <c r="D36" s="10"/>
+    </row>
+    <row r="37" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="11"/>
-      <c r="C37" s="9"/>
-    </row>
-    <row r="38" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="11"/>
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
-      <c r="C38" s="10"/>
-    </row>
-    <row r="39" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="12"/>
+      <c r="D38" s="10"/>
+    </row>
+    <row r="39" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="11"/>
-      <c r="C39" s="9"/>
-    </row>
-    <row r="40" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="11"/>
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
-      <c r="C40" s="10"/>
-    </row>
-    <row r="41" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="12"/>
+      <c r="D40" s="10"/>
+    </row>
+    <row r="41" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="11"/>
-      <c r="C41" s="9"/>
-    </row>
-    <row r="42" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="11"/>
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
-      <c r="C42" s="10"/>
-    </row>
-    <row r="43" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="12"/>
+      <c r="D42" s="10"/>
+    </row>
+    <row r="43" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="11"/>
-      <c r="C43" s="9"/>
-    </row>
-    <row r="44" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="11"/>
+      <c r="D43" s="9"/>
+    </row>
+    <row r="44" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
-      <c r="C44" s="10"/>
-    </row>
-    <row r="45" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="12"/>
+      <c r="D44" s="10"/>
+    </row>
+    <row r="45" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="11"/>
-      <c r="C45" s="9"/>
-    </row>
-    <row r="46" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="11"/>
+      <c r="D45" s="9"/>
+    </row>
+    <row r="46" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
-      <c r="C46" s="10"/>
-    </row>
-    <row r="47" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="12"/>
+      <c r="D46" s="10"/>
+    </row>
+    <row r="47" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="11"/>
-      <c r="C47" s="9"/>
-    </row>
-    <row r="48" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="11"/>
+      <c r="D47" s="9"/>
+    </row>
+    <row r="48" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="10"/>
-    </row>
-    <row r="49" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C48" s="12"/>
+      <c r="D48" s="10"/>
+    </row>
+    <row r="49" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="11"/>
-      <c r="C49" s="9"/>
-    </row>
-    <row r="50" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="11"/>
+      <c r="D49" s="9"/>
+    </row>
+    <row r="50" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="10"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C50" s="12"/>
+      <c r="D50" s="10"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="11"/>
       <c r="C51" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1039,48 +1095,48 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="2" max="2" width="67" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>19</v>
       </c>
@@ -1097,12 +1153,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -1110,7 +1166,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -1118,77 +1174,77 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>

--- a/static/files/stationnements.xlsx
+++ b/static/files/stationnements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayoub.bouchachia\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasoudard/workspace/beta.gouv.fr/apilos/static/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2F23E6-3DB0-488F-AFDC-58EEB8D71163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF76D782-5C94-6F42-A236-FC4A7FEF5086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
+    <workbookView xWindow="34880" yWindow="800" windowWidth="27600" windowHeight="16440" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Stationnements" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Ici quelques explications</t>
   </si>
@@ -126,9 +126,6 @@
   </si>
   <si>
     <t>Place de parking accolée à chaque garage</t>
-  </si>
-  <si>
-    <t>Financement</t>
   </si>
 </sst>
 </file>
@@ -434,7 +431,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -733,342 +730,289 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="30.875" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="27.625" customWidth="1"/>
+    <col min="1" max="3" width="30.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="9"/>
+    </row>
+    <row r="4" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="10"/>
+    </row>
+    <row r="11" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="10"/>
+    </row>
+    <row r="13" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="10"/>
+    </row>
+    <row r="17" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="10"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="10"/>
+    </row>
+    <row r="19" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="10"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="10"/>
+    </row>
+    <row r="21" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-    </row>
-    <row r="23" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="10"/>
+    </row>
+    <row r="23" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-    </row>
-    <row r="25" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="10"/>
+    </row>
+    <row r="25" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="9"/>
-    </row>
-    <row r="26" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="10"/>
-    </row>
-    <row r="27" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="10"/>
+    </row>
+    <row r="27" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="10"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="10"/>
+    </row>
+    <row r="29" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="9"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="9"/>
+    </row>
+    <row r="30" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="10"/>
-    </row>
-    <row r="31" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="10"/>
+    </row>
+    <row r="31" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="9"/>
-    </row>
-    <row r="32" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="9"/>
+    </row>
+    <row r="32" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="10"/>
-    </row>
-    <row r="33" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="10"/>
+    </row>
+    <row r="33" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="9"/>
-    </row>
-    <row r="34" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="9"/>
+    </row>
+    <row r="34" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="10"/>
-    </row>
-    <row r="35" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="10"/>
+    </row>
+    <row r="35" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="9"/>
-    </row>
-    <row r="36" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="9"/>
+    </row>
+    <row r="36" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="10"/>
-    </row>
-    <row r="37" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="10"/>
+    </row>
+    <row r="37" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="9"/>
-    </row>
-    <row r="38" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="9"/>
+    </row>
+    <row r="38" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="10"/>
-    </row>
-    <row r="39" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="10"/>
+    </row>
+    <row r="39" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="9"/>
-    </row>
-    <row r="40" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="9"/>
+    </row>
+    <row r="40" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="10"/>
-    </row>
-    <row r="41" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="10"/>
+    </row>
+    <row r="41" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="9"/>
-    </row>
-    <row r="42" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="9"/>
+    </row>
+    <row r="42" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="10"/>
-    </row>
-    <row r="43" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="10"/>
+    </row>
+    <row r="43" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="9"/>
-    </row>
-    <row r="44" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="9"/>
+    </row>
+    <row r="44" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="10"/>
-    </row>
-    <row r="45" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="10"/>
+    </row>
+    <row r="45" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="9"/>
-    </row>
-    <row r="46" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="9"/>
+    </row>
+    <row r="46" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="10"/>
-    </row>
-    <row r="47" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="10"/>
+    </row>
+    <row r="47" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
       <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="9"/>
-    </row>
-    <row r="48" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="9"/>
+    </row>
+    <row r="48" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="10"/>
-    </row>
-    <row r="49" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="10"/>
+    </row>
+    <row r="49" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="9"/>
-    </row>
-    <row r="50" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="9"/>
+    </row>
+    <row r="50" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="10"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C50" s="10"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
       <c r="B51" s="11"/>
       <c r="C51" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C1:C2"/>
+  <mergeCells count="1">
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1095,48 +1039,48 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="2" max="2" width="67" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>19</v>
       </c>
@@ -1153,12 +1097,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -1166,7 +1110,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -1174,77 +1118,77 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
